--- a/biology/Biochimie/Glycéraldéhyde/Glycéraldéhyde.xlsx
+++ b/biology/Biochimie/Glycéraldéhyde/Glycéraldéhyde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glyc%C3%A9rald%C3%A9hyde</t>
+          <t>Glycéraldéhyde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le glycéraldéhyde, également appelée glycérose, est un ose à trois atomes de carbone (triose), de formule brute C3H6O3. De plus, c'est un aldose car son groupement carbonyle est en extrémité de chaîne carbonée (aldéhyde), ce qui en fait un aldotriose. C'est le plus petit aldose, et donc le plus simple (il n'existe pas d'ose à deux atomes de carbone). Son isomère cétose est la dihydroxyacétone.
